--- a/数据整理/stocks/其他/301177-迪阿股份.xlsx
+++ b/数据整理/stocks/其他/301177-迪阿股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,557 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/301177-迪阿股份.xlsx
+++ b/数据整理/stocks/其他/301177-迪阿股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5604</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
@@ -541,302 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010994</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时创新经济混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1893</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011748</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>55.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0996</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010060</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景利混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010995</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时创新经济混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010061</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景利混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011749</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气成长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>55.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,17 +1079,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1429,14 +1119,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.55</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1445,14 +1157,302 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02</v>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
